--- a/data/original/exercises/020-qualtrics/030-030-020-ex2.xlsx
+++ b/data/original/exercises/020-qualtrics/030-030-020-ex2.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -406,6 +415,147 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44523.82420138889</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44523.82730324075</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>267</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44523.82730324075</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1bimil</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ebola %&gt;% 
+  pivot_longer(Cases_Guinea:last_col()) %&gt;% 
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;% 
+  drop_na()
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44523.10084490741</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44523.10333333333</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>215</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44523.87929398148</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44523.82427083334</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44523.82444444444</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44523.87930555556</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1lacat</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44518.816875</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44518.81747685185</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44523.87930555556</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6chhom</t>
         </is>
       </c>
     </row>
